--- a/MarsFramework/ExcelData/TestData.xlsx
+++ b/MarsFramework/ExcelData/TestData.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vidhya\Downloads\MarsFramework\MarsFramework\MarsFramework\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\MarsProject\marsframework\MarsFramework\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA428059-39C0-4B90-8BCF-7E49202B9138}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DDB186-1AE3-433C-85DB-8D829B4280C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="3" r:id="rId1"/>
     <sheet name="SignIn" sheetId="1" r:id="rId2"/>
     <sheet name="Profile" sheetId="2" r:id="rId3"/>
+    <sheet name="SkillDetails" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
   <si>
     <t>Url</t>
   </si>
@@ -33,9 +34,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>http://www.skillswap.pro/Home</t>
-  </si>
-  <si>
     <t>Language</t>
   </si>
   <si>
@@ -93,18 +91,6 @@
     <t>ConfirmPswd</t>
   </si>
   <si>
-    <t>Venugan</t>
-  </si>
-  <si>
-    <t>Vidhya</t>
-  </si>
-  <si>
-    <t>vidhyav9@gmail.com</t>
-  </si>
-  <si>
-    <t>Ithika2015</t>
-  </si>
-  <si>
     <t>Australia</t>
   </si>
   <si>
@@ -118,6 +104,102 @@
   </si>
   <si>
     <t>3 years as Oracle Developer and 2 years as Project Management Operations Lead</t>
+  </si>
+  <si>
+    <t>http://192.168.99.100:5000/</t>
+  </si>
+  <si>
+    <t>patel.darshika2829@yahoo.com</t>
+  </si>
+  <si>
+    <t>Kanchi-2829</t>
+  </si>
+  <si>
+    <t>Darshika</t>
+  </si>
+  <si>
+    <t>Patel</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>SubCategory</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>ServiceType</t>
+  </si>
+  <si>
+    <t>LocationType</t>
+  </si>
+  <si>
+    <t>Startdate</t>
+  </si>
+  <si>
+    <t>Enddate</t>
+  </si>
+  <si>
+    <t>Selectday</t>
+  </si>
+  <si>
+    <t>Starttime</t>
+  </si>
+  <si>
+    <t>Endtime</t>
+  </si>
+  <si>
+    <t>SkillTrade</t>
+  </si>
+  <si>
+    <t>Skill-Exchange</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Selenium</t>
+  </si>
+  <si>
+    <t>Would like to provide selenium training for beginners</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>One-off service</t>
+  </si>
+  <si>
+    <t>On-site</t>
+  </si>
+  <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>Performance Testing</t>
+  </si>
+  <si>
+    <t>Hidden</t>
+  </si>
+  <si>
+    <t>Programming &amp; Tech</t>
+  </si>
+  <si>
+    <t>8:00: pm</t>
+  </si>
+  <si>
+    <t>6:00:pm</t>
   </si>
 </sst>
 </file>
@@ -140,7 +222,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -150,6 +232,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -170,10 +258,13 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -516,50 +607,50 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" customWidth="1"/>
     <col min="5" max="5" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -575,13 +666,13 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.85546875" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
   </cols>
   <sheetData>
@@ -598,23 +689,22 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="C2" r:id="rId3" display="Test@123" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="C2" r:id="rId2" display="Test@123" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -622,7 +712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -640,69 +730,200 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3583A881-25A2-4714-963C-3AB5ADA39EF3}">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="3">
+        <v>44109</v>
+      </c>
+      <c r="I2" s="3">
+        <v>44127</v>
+      </c>
+      <c r="J2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/MarsFramework/ExcelData/TestData.xlsx
+++ b/MarsFramework/ExcelData/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\MarsProject\marsframework\MarsFramework\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DDB186-1AE3-433C-85DB-8D829B4280C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C2ED17-89B5-4538-9088-41C4EEFE1B17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
   <si>
     <t>Url</t>
   </si>
@@ -200,13 +200,28 @@
   </si>
   <si>
     <t>6:00:pm</t>
+  </si>
+  <si>
+    <t>Cooking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Would happy to provide cooking training </t>
+  </si>
+  <si>
+    <t>Fun &amp; Lifestyle</t>
+  </si>
+  <si>
+    <t>Health, Nutrition &amp; Fitness</t>
+  </si>
+  <si>
+    <t>Dancing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,6 +235,12 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -799,10 +820,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3583A881-25A2-4714-963C-3AB5ADA39EF3}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,7 +831,7 @@
     <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -922,7 +943,58 @@
         <v>55</v>
       </c>
     </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="3">
+        <v>44109</v>
+      </c>
+      <c r="I3" s="3">
+        <v>44127</v>
+      </c>
+      <c r="J3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" t="s">
+        <v>63</v>
+      </c>
+      <c r="O3">
+        <v>20</v>
+      </c>
+      <c r="P3" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/MarsFramework/ExcelData/TestData.xlsx
+++ b/MarsFramework/ExcelData/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\MarsProject\marsframework\MarsFramework\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C2ED17-89B5-4538-9088-41C4EEFE1B17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B2F82A-6A99-46A3-9A41-8B05B6F8105A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -823,7 +823,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -916,7 +916,7 @@
         <v>52</v>
       </c>
       <c r="H2" s="3">
-        <v>44109</v>
+        <v>44119</v>
       </c>
       <c r="I2" s="3">
         <v>44127</v>
@@ -966,7 +966,7 @@
         <v>52</v>
       </c>
       <c r="H3" s="3">
-        <v>44109</v>
+        <v>44119</v>
       </c>
       <c r="I3" s="3">
         <v>44127</v>
